--- a/AA - Arquivos de Apresentação de Artigo/Metadados do TCC _ ProjetoMeuVigilante.xlsx
+++ b/AA - Arquivos de Apresentação de Artigo/Metadados do TCC _ ProjetoMeuVigilante.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800" activeTab="2"/>
+    <workbookView windowWidth="24000" windowHeight="9675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Partes Interessadas" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>PARTES INTERESSADAS</t>
   </si>
@@ -99,7 +99,13 @@
     <t>REQUISITOS NÃO FUNCIONAIS</t>
   </si>
   <si>
+    <t>RNF-01</t>
+  </si>
+  <si>
     <t>O aplicativo contará com tela de login</t>
+  </si>
+  <si>
+    <t>RNF-02</t>
   </si>
   <si>
     <t>O aplicativo enviará os dados de lógica cifrada</t>
@@ -125,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -177,6 +183,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -184,24 +206,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,16 +268,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,45 +298,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,28 +311,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -333,181 +339,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,42 +527,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -578,6 +552,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -594,8 +583,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -606,6 +597,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,136 +632,136 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,7 +1157,7 @@
   <dimension ref="B6:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1261,7 +1267,7 @@
   <dimension ref="B6:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1291,10 +1297,10 @@
     </row>
     <row r="12" spans="3:6">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1305,30 +1311,30 @@
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
